--- a/biology/Médecine/Augustine_(film)/Augustine_(film).xlsx
+++ b/biology/Médecine/Augustine_(film)/Augustine_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustine est un film français écrit et réalisé par Alice Winocour, sorti en 2012.
 </t>
@@ -511,10 +523,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1885, Augustine, jeune fille atteinte d'hystérie, rencontre le professeur Jean-Martin Charcot qui démontre devant l'Académie de Médecine que l'hypnose permet d'en déclencher tous les symptômes. Elle lui permet de constater que des traumatismes émotionnels sont, au moins en partie, responsables de l'installation de la maladie. Il montre aussi que les symptômes nerveux dont Augustine est le siège ont une valeur particulière (psychodynamique) qui ne peut se ramener à des lésions anatomiques précises.
-Le personnage s'inspire de Louise Augustine Gleizes, patiente de Charcot à l'hôpital de la Salpétrière[1].
+Le personnage s'inspire de Louise Augustine Gleizes, patiente de Charcot à l'hôpital de la Salpétrière.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Augustine
 Réalisation : Alice Winocour
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vincent Lindon : Jean-Martin Charcot
 Soko : Augustine
@@ -639,13 +657,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « À l'origine du film, il y a une image…
 Le tableau d'André Brouillet Le Docteur Charcot à la Salpêtrière qui représente des hommes habillés en costume trois pièces regardant une femme comme un animal traqué. Je trouvais qu'il y avait quelque chose de très violent dans cette situation ; des hommes habillés et une femme presque livrée en pâture. Cette atmosphère sulfureuse de la Salpêtrière, ce mélange du côté médical et l’érotisme latent derrière l’alibi médical m’a fascinée. »
 — Interview d'Alice Winocour sur le site Grand Écart
-La réalisatrice-scénariste a travaillé à partir de lectures (La Guérison par l'esprit de Stefan Zweig, notamment), mais aussi en épluchant les archives de Charcot[2].</t>
+La réalisatrice-scénariste a travaillé à partir de lectures (La Guérison par l'esprit de Stefan Zweig, notamment), mais aussi en épluchant les archives de Charcot.</t>
         </is>
       </c>
     </row>
@@ -673,7 +693,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Augustine est le premier film le plus maîtrisé que l'on ait vu depuis longtemps. Chaque plan est cadré avec une précision méticuleuse, chaque décor, chaque costume sont choisis avec un soin maniaque. Tout est calculé. Presque trop. Même si elle voulait faire ressentir, à chaque instant, le lent étouffement, l'asphyxie permanente des personnages, on eût aimé, tout de même, que la réalisatrice laissât deviner dans sa mise en scène — de temps à autre, au moins ! — un petit souffle de liberté. Or, non... »
@@ -709,9 +731,11 @@
           <t>Promotion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Augustine a été présenté le 19 mai 2012 au Festival de Cannes[3] ainsi que le 4 juillet 2012 au Festival international du film de La Rochelle[4] et le 24 août 2012 au Festival du film francophone d'Angoulême[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augustine a été présenté le 19 mai 2012 au Festival de Cannes ainsi que le 4 juillet 2012 au Festival international du film de La Rochelle et le 24 août 2012 au Festival du film francophone d'Angoulême.
 </t>
         </is>
       </c>
@@ -742,10 +766,49 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Récompenses
-2011 : le film Augustine a reçu l'aide à la création de la Fondation Gan pour le cinéma [6].
-Nomination
-Césars 2013 : Nommé au César du meilleur premier film.</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2011 : le film Augustine a reçu l'aide à la création de la Fondation Gan pour le cinéma .</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Augustine_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Augustine_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Césars 2013 : Nommé au César du meilleur premier film.</t>
         </is>
       </c>
     </row>
